--- a/portfolio-optimization/data/raw/equities/dev_ex_us/van_esg_exus_etf.xlsx
+++ b/portfolio-optimization/data/raw/equities/dev_ex_us/van_esg_exus_etf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B596D3F4-E7BE-4DFE-892E-D06F9CC21FA6}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBDA32B-80EE-4992-9A11-A98218A512E2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -42,7 +42,25 @@
     <t>Name</t>
   </si>
   <si>
+    <t>FIGI</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Vanguard ESG Developed Europe Index Fund (EUR)</t>
+  </si>
+  <si>
+    <t>BBG000R22468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGSESIE ID </t>
+  </si>
+  <si>
+    <t>Aims to provide long-term growth capital by seeking to achieve the performance of the FTSE Developed Europe Choice Index. The fund invests in equities of its benchmark that meet specific social-ly responsible criteria.</t>
   </si>
 </sst>
 </file>
@@ -415,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1303"/>
+  <dimension ref="A1:F1303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,7 +445,7 @@
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,13 +455,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>45813</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>45812</v>
       </c>
@@ -451,10 +478,19 @@
         <v>276.77927</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>45811</v>
       </c>
@@ -462,7 +498,7 @@
         <v>275.02352999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>45810</v>
       </c>
@@ -470,7 +506,7 @@
         <v>276.11306999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>45807</v>
       </c>
@@ -478,7 +514,7 @@
         <v>276.32506999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>45806</v>
       </c>
@@ -486,7 +522,7 @@
         <v>275.56097</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>45805</v>
       </c>
@@ -494,7 +530,7 @@
         <v>274.13155999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>45804</v>
       </c>
@@ -502,7 +538,7 @@
         <v>276.42914000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>45803</v>
       </c>
@@ -510,7 +546,7 @@
         <v>275.69040000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>45800</v>
       </c>
@@ -518,7 +554,7 @@
         <v>273.27193999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>45799</v>
       </c>
@@ -526,7 +562,7 @@
         <v>275.98090000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>45798</v>
       </c>
@@ -534,7 +570,7 @@
         <v>278.91910000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>45797</v>
       </c>
@@ -542,7 +578,7 @@
         <v>278.06970000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>45796</v>
       </c>
@@ -550,7 +586,7 @@
         <v>275.97255999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>45793</v>
       </c>
